--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -42727,238 +42727,238 @@
     <mergeCell ref="O51:O54"/>
     <mergeCell ref="J134:J137"/>
     <mergeCell ref="K134:K137"/>
+    <mergeCell ref="S134:S137"/>
+    <mergeCell ref="T134:T137"/>
+    <mergeCell ref="X134:X137"/>
+    <mergeCell ref="Y134:Y137"/>
+    <mergeCell ref="AB134:AB137"/>
+    <mergeCell ref="AC134:AC137"/>
+    <mergeCell ref="AT134:AT137"/>
+    <mergeCell ref="AU134:AU137"/>
+    <mergeCell ref="BA134:BA137"/>
+    <mergeCell ref="BB134:BB137"/>
     <mergeCell ref="J138:J141"/>
     <mergeCell ref="K138:K141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="S138:S141"/>
+    <mergeCell ref="T138:T141"/>
+    <mergeCell ref="X138:X141"/>
+    <mergeCell ref="Y138:Y141"/>
+    <mergeCell ref="Z138:Z141"/>
+    <mergeCell ref="AB138:AB141"/>
+    <mergeCell ref="AC138:AC141"/>
+    <mergeCell ref="AJ138:AJ141"/>
+    <mergeCell ref="AK138:AK141"/>
+    <mergeCell ref="AT138:AT141"/>
+    <mergeCell ref="AU138:AU141"/>
+    <mergeCell ref="AZ138:AZ141"/>
+    <mergeCell ref="BA138:BA141"/>
+    <mergeCell ref="BB138:BB141"/>
     <mergeCell ref="J142:J145"/>
     <mergeCell ref="K142:K145"/>
-    <mergeCell ref="S134:S137"/>
-    <mergeCell ref="T134:T137"/>
-    <mergeCell ref="S138:S141"/>
-    <mergeCell ref="T138:T141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="M142:M145"/>
     <mergeCell ref="S142:S145"/>
     <mergeCell ref="T142:T145"/>
-    <mergeCell ref="X134:X137"/>
-    <mergeCell ref="Y134:Y137"/>
-    <mergeCell ref="X138:X141"/>
-    <mergeCell ref="Y138:Y141"/>
     <mergeCell ref="X142:X145"/>
     <mergeCell ref="Y142:Y145"/>
-    <mergeCell ref="AB134:AB137"/>
-    <mergeCell ref="AC134:AC137"/>
-    <mergeCell ref="AB138:AB141"/>
-    <mergeCell ref="AC138:AC141"/>
+    <mergeCell ref="Z142:Z145"/>
     <mergeCell ref="AB142:AB145"/>
     <mergeCell ref="AC142:AC145"/>
-    <mergeCell ref="AT134:AT137"/>
-    <mergeCell ref="AU134:AU137"/>
-    <mergeCell ref="AT138:AT141"/>
-    <mergeCell ref="AU138:AU141"/>
+    <mergeCell ref="AJ142:AJ145"/>
+    <mergeCell ref="AK142:AK145"/>
     <mergeCell ref="AT142:AT145"/>
     <mergeCell ref="AU142:AU145"/>
-    <mergeCell ref="BA134:BA137"/>
-    <mergeCell ref="BB134:BB137"/>
-    <mergeCell ref="BA138:BA141"/>
-    <mergeCell ref="BB138:BB141"/>
+    <mergeCell ref="AZ142:AZ145"/>
     <mergeCell ref="BA142:BA145"/>
     <mergeCell ref="BB142:BB145"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="Z138:Z141"/>
-    <mergeCell ref="Z142:Z145"/>
-    <mergeCell ref="AJ138:AJ141"/>
-    <mergeCell ref="AK138:AK141"/>
-    <mergeCell ref="AJ142:AJ145"/>
-    <mergeCell ref="AK142:AK145"/>
-    <mergeCell ref="AZ138:AZ141"/>
-    <mergeCell ref="AZ142:AZ145"/>
     <mergeCell ref="E146:E149"/>
     <mergeCell ref="F146:F149"/>
+    <mergeCell ref="V146:V149"/>
+    <mergeCell ref="W146:W149"/>
+    <mergeCell ref="AN146:AN149"/>
+    <mergeCell ref="AO146:AO149"/>
+    <mergeCell ref="AV146:AV149"/>
+    <mergeCell ref="AW146:AW149"/>
+    <mergeCell ref="BF146:BF149"/>
+    <mergeCell ref="BG146:BG149"/>
+    <mergeCell ref="BH146:BH149"/>
+    <mergeCell ref="BI146:BI149"/>
+    <mergeCell ref="D150:D153"/>
     <mergeCell ref="E150:E153"/>
     <mergeCell ref="F150:F153"/>
+    <mergeCell ref="V150:V153"/>
+    <mergeCell ref="W150:W153"/>
+    <mergeCell ref="Z150:Z153"/>
+    <mergeCell ref="AJ150:AJ153"/>
+    <mergeCell ref="AK150:AK153"/>
+    <mergeCell ref="AN150:AN153"/>
+    <mergeCell ref="AO150:AO153"/>
+    <mergeCell ref="AV150:AV153"/>
+    <mergeCell ref="AW150:AW153"/>
+    <mergeCell ref="BC150:BC153"/>
+    <mergeCell ref="BD150:BD153"/>
+    <mergeCell ref="BF150:BF153"/>
+    <mergeCell ref="BG150:BG153"/>
+    <mergeCell ref="BH150:BH153"/>
+    <mergeCell ref="BI150:BI153"/>
+    <mergeCell ref="D154:D157"/>
     <mergeCell ref="E154:E157"/>
     <mergeCell ref="F154:F157"/>
-    <mergeCell ref="V146:V149"/>
-    <mergeCell ref="W146:W149"/>
-    <mergeCell ref="V150:V153"/>
-    <mergeCell ref="W150:W153"/>
     <mergeCell ref="V154:V157"/>
     <mergeCell ref="W154:W157"/>
-    <mergeCell ref="AN146:AN149"/>
-    <mergeCell ref="AO146:AO149"/>
-    <mergeCell ref="AN150:AN153"/>
-    <mergeCell ref="AO150:AO153"/>
+    <mergeCell ref="Z154:Z157"/>
+    <mergeCell ref="AJ154:AJ157"/>
+    <mergeCell ref="AK154:AK157"/>
     <mergeCell ref="AN154:AN157"/>
     <mergeCell ref="AO154:AO157"/>
-    <mergeCell ref="AV146:AV149"/>
-    <mergeCell ref="AW146:AW149"/>
-    <mergeCell ref="AV150:AV153"/>
-    <mergeCell ref="AW150:AW153"/>
     <mergeCell ref="AV154:AV157"/>
     <mergeCell ref="AW154:AW157"/>
-    <mergeCell ref="BF146:BF149"/>
-    <mergeCell ref="BG146:BG149"/>
-    <mergeCell ref="BF150:BF153"/>
-    <mergeCell ref="BG150:BG153"/>
+    <mergeCell ref="BC154:BC157"/>
+    <mergeCell ref="BD154:BD157"/>
     <mergeCell ref="BF154:BF157"/>
     <mergeCell ref="BG154:BG157"/>
-    <mergeCell ref="BH146:BH149"/>
-    <mergeCell ref="BI146:BI149"/>
-    <mergeCell ref="BH150:BH153"/>
-    <mergeCell ref="BI150:BI153"/>
     <mergeCell ref="BH154:BH157"/>
     <mergeCell ref="BI154:BI157"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D157"/>
-    <mergeCell ref="Z150:Z153"/>
-    <mergeCell ref="Z154:Z157"/>
-    <mergeCell ref="AJ150:AJ153"/>
-    <mergeCell ref="AK150:AK153"/>
-    <mergeCell ref="AJ154:AJ157"/>
-    <mergeCell ref="AK154:AK157"/>
-    <mergeCell ref="BC150:BC153"/>
-    <mergeCell ref="BD150:BD153"/>
-    <mergeCell ref="BC154:BC157"/>
-    <mergeCell ref="BD154:BD157"/>
     <mergeCell ref="E159:E162"/>
     <mergeCell ref="F159:F162"/>
+    <mergeCell ref="M159:M162"/>
+    <mergeCell ref="N159:N162"/>
+    <mergeCell ref="Q159:Q162"/>
+    <mergeCell ref="R159:R162"/>
+    <mergeCell ref="Y159:Y162"/>
+    <mergeCell ref="AC159:AC162"/>
+    <mergeCell ref="AD159:AD162"/>
+    <mergeCell ref="AE159:AE162"/>
+    <mergeCell ref="AF159:AF162"/>
+    <mergeCell ref="AJ159:AJ162"/>
+    <mergeCell ref="AK159:AK162"/>
+    <mergeCell ref="AO159:AO162"/>
+    <mergeCell ref="AP159:AP162"/>
+    <mergeCell ref="AQ159:AQ162"/>
+    <mergeCell ref="AR159:AR162"/>
+    <mergeCell ref="AW159:AW162"/>
+    <mergeCell ref="AX159:AX162"/>
+    <mergeCell ref="BH159:BH162"/>
+    <mergeCell ref="BI159:BI162"/>
     <mergeCell ref="E163:E166"/>
     <mergeCell ref="F163:F166"/>
+    <mergeCell ref="M163:M166"/>
+    <mergeCell ref="N163:N166"/>
+    <mergeCell ref="Q163:Q166"/>
+    <mergeCell ref="R163:R166"/>
+    <mergeCell ref="Y163:Y166"/>
+    <mergeCell ref="AC163:AC166"/>
+    <mergeCell ref="AD163:AD166"/>
+    <mergeCell ref="AE163:AE166"/>
+    <mergeCell ref="AF163:AF166"/>
+    <mergeCell ref="AI163:AI166"/>
+    <mergeCell ref="AJ163:AJ166"/>
+    <mergeCell ref="AK163:AK166"/>
+    <mergeCell ref="AO163:AO166"/>
+    <mergeCell ref="AP163:AP166"/>
+    <mergeCell ref="AQ163:AQ166"/>
+    <mergeCell ref="AR163:AR166"/>
+    <mergeCell ref="AW163:AW166"/>
+    <mergeCell ref="AX163:AX166"/>
+    <mergeCell ref="BA163:BA166"/>
+    <mergeCell ref="BB163:BB166"/>
+    <mergeCell ref="BH163:BH166"/>
+    <mergeCell ref="BI163:BI166"/>
     <mergeCell ref="E167:E170"/>
     <mergeCell ref="F167:F170"/>
-    <mergeCell ref="M159:M162"/>
-    <mergeCell ref="N159:N162"/>
-    <mergeCell ref="M163:M166"/>
-    <mergeCell ref="N163:N166"/>
     <mergeCell ref="M167:M170"/>
     <mergeCell ref="N167:N170"/>
+    <mergeCell ref="Q167:Q170"/>
+    <mergeCell ref="R167:R170"/>
+    <mergeCell ref="Y167:Y170"/>
+    <mergeCell ref="AC167:AC170"/>
+    <mergeCell ref="AD167:AD170"/>
+    <mergeCell ref="AE167:AE170"/>
+    <mergeCell ref="AF167:AF170"/>
+    <mergeCell ref="AI167:AI170"/>
+    <mergeCell ref="AJ167:AJ170"/>
+    <mergeCell ref="AK167:AK170"/>
+    <mergeCell ref="AO167:AO170"/>
+    <mergeCell ref="AP167:AP170"/>
+    <mergeCell ref="AQ167:AQ170"/>
+    <mergeCell ref="AR167:AR170"/>
+    <mergeCell ref="AW167:AW170"/>
+    <mergeCell ref="AX167:AX170"/>
+    <mergeCell ref="BA167:BA170"/>
+    <mergeCell ref="BB167:BB170"/>
+    <mergeCell ref="BH167:BH170"/>
+    <mergeCell ref="BI167:BI170"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="H171:H174"/>
     <mergeCell ref="M171:M174"/>
     <mergeCell ref="N171:N174"/>
+    <mergeCell ref="Q171:Q174"/>
+    <mergeCell ref="R171:R174"/>
+    <mergeCell ref="T171:T174"/>
+    <mergeCell ref="U171:U174"/>
+    <mergeCell ref="Y171:Y174"/>
+    <mergeCell ref="AC171:AC174"/>
+    <mergeCell ref="AD171:AD174"/>
+    <mergeCell ref="AJ171:AJ174"/>
+    <mergeCell ref="AK171:AK174"/>
+    <mergeCell ref="AQ171:AQ174"/>
+    <mergeCell ref="AR171:AR174"/>
+    <mergeCell ref="AW171:AW174"/>
+    <mergeCell ref="AX171:AX174"/>
+    <mergeCell ref="BA171:BA174"/>
+    <mergeCell ref="BB171:BB174"/>
+    <mergeCell ref="BH171:BH174"/>
+    <mergeCell ref="BI171:BI174"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="L175:L178"/>
     <mergeCell ref="M175:M178"/>
     <mergeCell ref="N175:N178"/>
+    <mergeCell ref="Q175:Q178"/>
+    <mergeCell ref="R175:R178"/>
+    <mergeCell ref="T175:T178"/>
+    <mergeCell ref="U175:U178"/>
+    <mergeCell ref="Y175:Y178"/>
+    <mergeCell ref="AC175:AC178"/>
+    <mergeCell ref="AD175:AD178"/>
+    <mergeCell ref="AJ175:AJ178"/>
+    <mergeCell ref="AK175:AK178"/>
+    <mergeCell ref="AQ175:AQ178"/>
+    <mergeCell ref="AR175:AR178"/>
+    <mergeCell ref="AW175:AW178"/>
+    <mergeCell ref="AX175:AX178"/>
+    <mergeCell ref="BA175:BA178"/>
+    <mergeCell ref="BB175:BB178"/>
+    <mergeCell ref="BE175:BE178"/>
+    <mergeCell ref="BG175:BG178"/>
+    <mergeCell ref="BH175:BH178"/>
+    <mergeCell ref="BI175:BI178"/>
+    <mergeCell ref="G179:G182"/>
+    <mergeCell ref="H179:H182"/>
+    <mergeCell ref="L179:L182"/>
     <mergeCell ref="M179:M182"/>
     <mergeCell ref="N179:N182"/>
-    <mergeCell ref="Q159:Q162"/>
-    <mergeCell ref="R159:R162"/>
-    <mergeCell ref="Q163:Q166"/>
-    <mergeCell ref="R163:R166"/>
-    <mergeCell ref="Q167:Q170"/>
-    <mergeCell ref="R167:R170"/>
-    <mergeCell ref="Y159:Y162"/>
-    <mergeCell ref="Y163:Y166"/>
-    <mergeCell ref="Y167:Y170"/>
-    <mergeCell ref="Y171:Y174"/>
-    <mergeCell ref="Y175:Y178"/>
+    <mergeCell ref="Q179:Q182"/>
+    <mergeCell ref="R179:R182"/>
+    <mergeCell ref="T179:T182"/>
+    <mergeCell ref="U179:U182"/>
     <mergeCell ref="Y179:Y182"/>
-    <mergeCell ref="AC159:AC162"/>
-    <mergeCell ref="AD159:AD162"/>
-    <mergeCell ref="AC163:AC166"/>
-    <mergeCell ref="AD163:AD166"/>
-    <mergeCell ref="AC167:AC170"/>
-    <mergeCell ref="AD167:AD170"/>
-    <mergeCell ref="AE159:AE162"/>
-    <mergeCell ref="AF159:AF162"/>
-    <mergeCell ref="AE163:AE166"/>
-    <mergeCell ref="AF163:AF166"/>
-    <mergeCell ref="AE167:AE170"/>
-    <mergeCell ref="AF167:AF170"/>
-    <mergeCell ref="AJ159:AJ162"/>
-    <mergeCell ref="AK159:AK162"/>
-    <mergeCell ref="AJ163:AJ166"/>
-    <mergeCell ref="AK163:AK166"/>
-    <mergeCell ref="AJ167:AJ170"/>
-    <mergeCell ref="AK167:AK170"/>
-    <mergeCell ref="AO159:AO162"/>
-    <mergeCell ref="AP159:AP162"/>
-    <mergeCell ref="AO163:AO166"/>
-    <mergeCell ref="AP163:AP166"/>
-    <mergeCell ref="AO167:AO170"/>
-    <mergeCell ref="AP167:AP170"/>
-    <mergeCell ref="AQ159:AQ162"/>
-    <mergeCell ref="AR159:AR162"/>
-    <mergeCell ref="AQ163:AQ166"/>
-    <mergeCell ref="AR163:AR166"/>
-    <mergeCell ref="AQ167:AQ170"/>
-    <mergeCell ref="AR167:AR170"/>
-    <mergeCell ref="AW159:AW162"/>
-    <mergeCell ref="AX159:AX162"/>
-    <mergeCell ref="AW163:AW166"/>
-    <mergeCell ref="AX163:AX166"/>
-    <mergeCell ref="AW167:AW170"/>
-    <mergeCell ref="AX167:AX170"/>
-    <mergeCell ref="BH159:BH162"/>
-    <mergeCell ref="BI159:BI162"/>
-    <mergeCell ref="BH163:BH166"/>
-    <mergeCell ref="BI163:BI166"/>
-    <mergeCell ref="BH167:BH170"/>
-    <mergeCell ref="BI167:BI170"/>
-    <mergeCell ref="BH171:BH174"/>
-    <mergeCell ref="BI171:BI174"/>
-    <mergeCell ref="BH175:BH178"/>
-    <mergeCell ref="BI175:BI178"/>
+    <mergeCell ref="AC179:AC182"/>
+    <mergeCell ref="AD179:AD182"/>
+    <mergeCell ref="AJ179:AJ182"/>
+    <mergeCell ref="AK179:AK182"/>
+    <mergeCell ref="AQ179:AQ182"/>
+    <mergeCell ref="AR179:AR182"/>
+    <mergeCell ref="AW179:AW182"/>
+    <mergeCell ref="AX179:AX182"/>
+    <mergeCell ref="BA179:BA182"/>
+    <mergeCell ref="BB179:BB182"/>
+    <mergeCell ref="BE179:BE182"/>
+    <mergeCell ref="BG179:BG182"/>
     <mergeCell ref="BH179:BH182"/>
     <mergeCell ref="BI179:BI182"/>
-    <mergeCell ref="AI163:AI166"/>
-    <mergeCell ref="AI167:AI170"/>
-    <mergeCell ref="BA163:BA166"/>
-    <mergeCell ref="BB163:BB166"/>
-    <mergeCell ref="BA167:BA170"/>
-    <mergeCell ref="BB167:BB170"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="H171:H174"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="G179:G182"/>
-    <mergeCell ref="H179:H182"/>
-    <mergeCell ref="Q171:Q174"/>
-    <mergeCell ref="R171:R174"/>
-    <mergeCell ref="Q175:Q178"/>
-    <mergeCell ref="R175:R178"/>
-    <mergeCell ref="Q179:Q182"/>
-    <mergeCell ref="R179:R182"/>
-    <mergeCell ref="T171:T174"/>
-    <mergeCell ref="U171:U174"/>
-    <mergeCell ref="T175:T178"/>
-    <mergeCell ref="U175:U178"/>
-    <mergeCell ref="T179:T182"/>
-    <mergeCell ref="U179:U182"/>
-    <mergeCell ref="AC171:AC174"/>
-    <mergeCell ref="AD171:AD174"/>
-    <mergeCell ref="AC175:AC178"/>
-    <mergeCell ref="AD175:AD178"/>
-    <mergeCell ref="AC179:AC182"/>
-    <mergeCell ref="AD179:AD182"/>
-    <mergeCell ref="AJ171:AJ174"/>
-    <mergeCell ref="AK171:AK174"/>
-    <mergeCell ref="AJ175:AJ178"/>
-    <mergeCell ref="AK175:AK178"/>
-    <mergeCell ref="AJ179:AJ182"/>
-    <mergeCell ref="AK179:AK182"/>
-    <mergeCell ref="AQ171:AQ174"/>
-    <mergeCell ref="AR171:AR174"/>
-    <mergeCell ref="AQ175:AQ178"/>
-    <mergeCell ref="AR175:AR178"/>
-    <mergeCell ref="AQ179:AQ182"/>
-    <mergeCell ref="AR179:AR182"/>
-    <mergeCell ref="AW171:AW174"/>
-    <mergeCell ref="AX171:AX174"/>
-    <mergeCell ref="AW175:AW178"/>
-    <mergeCell ref="AX175:AX178"/>
-    <mergeCell ref="AW179:AW182"/>
-    <mergeCell ref="AX179:AX182"/>
-    <mergeCell ref="BA171:BA174"/>
-    <mergeCell ref="BB171:BB174"/>
-    <mergeCell ref="BA175:BA178"/>
-    <mergeCell ref="BB175:BB178"/>
-    <mergeCell ref="BA179:BA182"/>
-    <mergeCell ref="BB179:BB182"/>
-    <mergeCell ref="L175:L178"/>
-    <mergeCell ref="L179:L182"/>
-    <mergeCell ref="BE175:BE178"/>
-    <mergeCell ref="BE179:BE182"/>
-    <mergeCell ref="BG175:BG178"/>
-    <mergeCell ref="BG179:BG182"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape" paperSize="9" scale="62"/>
